--- a/app/config/tables/custom_individuals/forms/custom_individuals/custom_individuals.xlsx
+++ b/app/config/tables/custom_individuals/forms/custom_individuals/custom_individuals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/appGreece/config/tables/custom_individuals/forms/custom_individuals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/custom_individuals/forms/custom_individuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="4060" windowWidth="32460" windowHeight="22300" tabRatio="994"/>
+    <workbookView xWindow="3660" yWindow="2620" windowWidth="26520" windowHeight="11560" tabRatio="994" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="146">
   <si>
     <t>clause</t>
   </si>
@@ -371,12 +371,6 @@
     <t>isSessionVariable</t>
   </si>
   <si>
-    <t>registrationMember</t>
-  </si>
-  <si>
-    <t>Register Member</t>
-  </si>
-  <si>
     <t>is_head_of_household</t>
   </si>
   <si>
@@ -476,16 +470,13 @@
     <t>select_multiple</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>default[0]</t>
-  </si>
-  <si>
-    <t>beneficiary_entity_id</t>
-  </si>
-  <si>
-    <t>individual_id</t>
+    <t>custom_beneficiary_entity_row_id</t>
+  </si>
+  <si>
+    <t>custom_individuals</t>
+  </si>
+  <si>
+    <t>Custom Individuals</t>
   </si>
 </sst>
 </file>
@@ -699,7 +690,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -764,7 +755,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1223,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1323,7 +1313,7 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -1452,7 +1442,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1606,13 +1596,13 @@
         <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="K22" s="1" t="b">
         <v>1</v>
@@ -1652,24 +1642,24 @@
         <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
@@ -1682,13 +1672,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="K28" s="1" t="b">
         <v>1</v>
@@ -1754,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1781,7 +1771,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C2"/>
     </row>
@@ -1799,7 +1789,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C4"/>
     </row>
@@ -1809,7 +1799,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,7 +1855,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1873,7 +1863,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,7 +1871,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1889,7 +1879,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1897,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1908,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1919,12 +1909,10 @@
     <col min="1" max="1" width="24.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="53.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="12" width="8.83203125" style="1"/>
+    <col min="4" max="9" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1934,26 +1922,19 @@
       <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>146</v>
-      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="40"/>
@@ -1961,307 +1942,234 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3"/>
+        <v>14</v>
+      </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="b">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="41"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>118</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D18" s="40"/>
-      <c r="E18" s="40" t="s">
-        <v>140</v>
-      </c>
+      <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K21"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2363,112 +2271,112 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
         <v>139</v>
       </c>
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +2496,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2641,16 +2549,16 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>110</v>
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>24</v>

--- a/app/config/tables/custom_individuals/forms/custom_individuals/custom_individuals.xlsx
+++ b/app/config/tables/custom_individuals/forms/custom_individuals/custom_individuals.xlsx
@@ -9,21 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="6060" windowWidth="25420" windowHeight="14720" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="9060" yWindow="6060" windowWidth="25420" windowHeight="14720" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
-    <sheet name="table_specific_translations" sheetId="3" r:id="rId3"/>
-    <sheet name="model" sheetId="4" r:id="rId4"/>
-    <sheet name="choices" sheetId="5" r:id="rId5"/>
-    <sheet name="calculates" sheetId="6" r:id="rId6"/>
-    <sheet name="properties" sheetId="7" r:id="rId7"/>
-    <sheet name="queries" sheetId="8" r:id="rId8"/>
-    <sheet name="prompt_types" sheetId="9" r:id="rId9"/>
-    <sheet name="initial" sheetId="10" r:id="rId10"/>
+    <sheet name="model" sheetId="4" r:id="rId3"/>
+    <sheet name="choices" sheetId="5" r:id="rId4"/>
+    <sheet name="calculates" sheetId="6" r:id="rId5"/>
+    <sheet name="properties" sheetId="7" r:id="rId6"/>
+    <sheet name="queries" sheetId="8" r:id="rId7"/>
+    <sheet name="prompt_types" sheetId="9" r:id="rId8"/>
+    <sheet name="initial" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="135">
   <si>
     <t>clause</t>
   </si>
@@ -251,67 +250,7 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>string_token</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>text.spanish</t>
-  </si>
-  <si>
     <t>custom_beneficiary_entity_row_id</t>
-  </si>
-  <si>
-    <t>Custom Beneficiary Entity Row ID</t>
-  </si>
-  <si>
-    <t>Date Screened</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First and Last Name</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>ID Type</t>
-  </si>
-  <si>
-    <t>ID Number</t>
-  </si>
-  <si>
-    <t>beneficiary_code</t>
-  </si>
-  <si>
-    <t>Beneficiary Code</t>
-  </si>
-  <si>
-    <t>Verify User</t>
-  </si>
-  <si>
-    <t>Is Head of Household</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Vulnerability</t>
   </si>
   <si>
     <t>isSessionVariable</t>
@@ -541,7 +480,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,12 +521,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -655,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -688,7 +621,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1390,7 +1322,7 @@
       <c r="H17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1405,7 +1337,7 @@
       <c r="H18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="409" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="96" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="C19" s="19" t="s">
         <v>16</v>
@@ -1534,53 +1466,6 @@
       <c r="K27" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1667,165 +1552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1839,33 +1569,33 @@
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+        <v>71</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1875,12 +1605,12 @@
         <v>14</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1890,12 +1620,12 @@
         <v>19</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1905,12 +1635,12 @@
         <v>22</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1920,12 +1650,12 @@
         <v>25</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1935,12 +1665,12 @@
         <v>37</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1950,12 +1680,12 @@
         <v>49</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1965,12 +1695,12 @@
         <v>39</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1980,12 +1710,12 @@
         <v>29</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1995,12 +1725,12 @@
         <v>32</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -2013,12 +1743,12 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -2027,12 +1757,12 @@
       <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -2041,12 +1771,12 @@
       <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2055,12 +1785,12 @@
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2069,12 +1799,12 @@
       <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2082,7 +1812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -2093,13 +1823,13 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2108,10 +1838,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2119,76 +1849,76 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>105</v>
+      <c r="B10" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>107</v>
+      <c r="B11" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2196,10 +1926,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2207,10 +1937,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2218,10 +1948,10 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2229,10 +1959,10 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2240,10 +1970,10 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,10 +1981,10 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2262,10 +1992,10 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2273,10 +2003,10 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2296,10 +2026,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2307,8 +2037,8 @@
       <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>118</v>
+      <c r="B2" s="34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2328,54 +2058,54 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="A2" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>125</v>
+      <c r="E2" s="35" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>128</v>
+        <v>107</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2403,40 +2133,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>138</v>
+      <c r="B2" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -2444,20 +2174,20 @@
       <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="41" t="s">
+      <c r="E2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>141</v>
+      <c r="H2" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2477,67 +2207,114 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>144</v>
+      <c r="A2" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>144</v>
+      <c r="A3" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>144</v>
+      <c r="A4" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>144</v>
+      <c r="A5" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>144</v>
+      <c r="A6" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>144</v>
+      <c r="A7" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/custom_individuals/forms/custom_individuals/custom_individuals.xlsx
+++ b/app/config/tables/custom_individuals/forms/custom_individuals/custom_individuals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="6060" windowWidth="25420" windowHeight="14720" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="9060" yWindow="6060" windowWidth="25420" windowHeight="14720" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1186,19 +1186,17 @@
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10"/>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
+      <c r="H10"/>
       <c r="K10" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1208,17 +1206,19 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11"/>
-      <c r="H11"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
       <c r="K11" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1554,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
